--- a/Tags VO.xlsx
+++ b/Tags VO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="83">
   <si>
     <t xml:space="preserve">fichier</t>
   </si>
@@ -236,10 +236,10 @@
     <t xml:space="preserve">#Explicatif #Souriant </t>
   </si>
   <si>
-    <t xml:space="preserve">CA 2</t>
+    <t xml:space="preserve">yes </t>
   </si>
   <si>
-    <t xml:space="preserve">#Naturel #Explicatif </t>
+    <t xml:space="preserve">CA 2</t>
   </si>
   <si>
     <t xml:space="preserve">#Posé #Souriant </t>
@@ -248,16 +248,13 @@
     <t xml:space="preserve">#Posé #Naturel </t>
   </si>
   <si>
-    <t xml:space="preserve">#Naturel #Souriant </t>
-  </si>
-  <si>
     <t xml:space="preserve">#Naturel #Sérieux </t>
   </si>
   <si>
-    <t xml:space="preserve">#Naturel #Rassurant </t>
+    <t xml:space="preserve">#Explicatif #Sérieux </t>
   </si>
   <si>
-    <t xml:space="preserve">#Explicatif #Sérieux </t>
+    <t xml:space="preserve">pas de son</t>
   </si>
   <si>
     <t xml:space="preserve">#Posé #Explicatif </t>
@@ -269,16 +266,10 @@
     <t xml:space="preserve">#Complice #Dynamique </t>
   </si>
   <si>
-    <t xml:space="preserve">#Posé #Rassurant </t>
-  </si>
-  <si>
     <t xml:space="preserve">#Posé #Naturel #Complice </t>
   </si>
   <si>
     <t xml:space="preserve">#Naturel #Dynamique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Naturel #Complice </t>
   </si>
 </sst>
 </file>
@@ -350,7 +341,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,13 +357,55 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFD7D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFF7D1D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF6D"/>
+        <bgColor rgb="FFD4EA6B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D1D5"/>
+        <bgColor rgb="FFFFD7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF860D"/>
+        <bgColor rgb="FFFF972F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFF7D1D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF972F"/>
+        <bgColor rgb="FFFF860D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFFFFF6D"/>
       </patternFill>
     </fill>
   </fills>
@@ -417,7 +450,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -462,6 +495,38 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +539,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -487,14 +552,14 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF972F"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFEAD1DC"/>
       <rgbColor rgb="FF000080"/>
@@ -508,16 +573,16 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFD9EAD3"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF6D"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFF7D1D5"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF860D"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -552,7 +617,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="28.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.11"/>
@@ -634,7 +699,7 @@
       </c>
       <c r="D2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J2)),$J$1,""),IF(NOT(ISBLANK(K2)),$K$1,""),IF(NOT(ISBLANK(L2)),$L$1,""),IF(NOT(ISBLANK(M2)),$M$1,""),IF(NOT(ISBLANK(N2)),$N$1,""),IF(NOT(ISBLANK(O2)),$O$1,""),IF(NOT(ISBLANK(P2)),$P$1,""),IF(NOT(ISBLANK(Q2)),$Q$1,""))</f>
-        <v>#Naturel #Explicatif </v>
+        <v>#Naturel #Explicatif</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>19</v>
@@ -669,7 +734,7 @@
       </c>
       <c r="D3" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J3)),$J$1,""),IF(NOT(ISBLANK(K3)),$K$1,""),IF(NOT(ISBLANK(L3)),$L$1,""),IF(NOT(ISBLANK(M3)),$M$1,""),IF(NOT(ISBLANK(N3)),$N$1,""),IF(NOT(ISBLANK(O3)),$O$1,""),IF(NOT(ISBLANK(P3)),$P$1,""),IF(NOT(ISBLANK(Q3)),$Q$1,""))</f>
-        <v>#Explicatif #Souriant </v>
+        <v>#Explicatif #Souriant</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
@@ -704,7 +769,7 @@
       </c>
       <c r="D4" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J4)),$J$1,""),IF(NOT(ISBLANK(K4)),$K$1,""),IF(NOT(ISBLANK(L4)),$L$1,""),IF(NOT(ISBLANK(M4)),$M$1,""),IF(NOT(ISBLANK(N4)),$N$1,""),IF(NOT(ISBLANK(O4)),$O$1,""),IF(NOT(ISBLANK(P4)),$P$1,""),IF(NOT(ISBLANK(Q4)),$Q$1,""))</f>
-        <v>#Explicatif #Souriant </v>
+        <v>#Explicatif #Souriant</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
@@ -739,7 +804,7 @@
       </c>
       <c r="D5" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J5)),$J$1,""),IF(NOT(ISBLANK(K5)),$K$1,""),IF(NOT(ISBLANK(L5)),$L$1,""),IF(NOT(ISBLANK(M5)),$M$1,""),IF(NOT(ISBLANK(N5)),$N$1,""),IF(NOT(ISBLANK(O5)),$O$1,""),IF(NOT(ISBLANK(P5)),$P$1,""),IF(NOT(ISBLANK(Q5)),$Q$1,""))</f>
-        <v>#Naturel </v>
+        <v>#Naturel</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -772,7 +837,7 @@
       </c>
       <c r="D6" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J6)),$J$1,""),IF(NOT(ISBLANK(K6)),$K$1,""),IF(NOT(ISBLANK(L6)),$L$1,""),IF(NOT(ISBLANK(M6)),$M$1,""),IF(NOT(ISBLANK(N6)),$N$1,""),IF(NOT(ISBLANK(O6)),$O$1,""),IF(NOT(ISBLANK(P6)),$P$1,""),IF(NOT(ISBLANK(Q6)),$Q$1,""))</f>
-        <v>#Sérieux </v>
+        <v>#Sérieux</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
@@ -805,7 +870,7 @@
       </c>
       <c r="D7" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J7)),$J$1,""),IF(NOT(ISBLANK(K7)),$K$1,""),IF(NOT(ISBLANK(L7)),$L$1,""),IF(NOT(ISBLANK(M7)),$M$1,""),IF(NOT(ISBLANK(N7)),$N$1,""),IF(NOT(ISBLANK(O7)),$O$1,""),IF(NOT(ISBLANK(P7)),$P$1,""),IF(NOT(ISBLANK(Q7)),$Q$1,""))</f>
-        <v>#Dynamique </v>
+        <v>#Dynamique</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -838,7 +903,7 @@
       </c>
       <c r="D8" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J8)),$J$1,""),IF(NOT(ISBLANK(K8)),$K$1,""),IF(NOT(ISBLANK(L8)),$L$1,""),IF(NOT(ISBLANK(M8)),$M$1,""),IF(NOT(ISBLANK(N8)),$N$1,""),IF(NOT(ISBLANK(O8)),$O$1,""),IF(NOT(ISBLANK(P8)),$P$1,""),IF(NOT(ISBLANK(Q8)),$Q$1,""))</f>
-        <v>#Naturel #Dynamique </v>
+        <v>#Naturel #Dynamique</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -873,7 +938,7 @@
       </c>
       <c r="D9" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J9)),$J$1,""),IF(NOT(ISBLANK(K9)),$K$1,""),IF(NOT(ISBLANK(L9)),$L$1,""),IF(NOT(ISBLANK(M9)),$M$1,""),IF(NOT(ISBLANK(N9)),$N$1,""),IF(NOT(ISBLANK(O9)),$O$1,""),IF(NOT(ISBLANK(P9)),$P$1,""),IF(NOT(ISBLANK(Q9)),$Q$1,""))</f>
-        <v>#Naturel #Complice </v>
+        <v>#Naturel #Complice</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -908,7 +973,7 @@
       </c>
       <c r="D10" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J10)),$J$1,""),IF(NOT(ISBLANK(K10)),$K$1,""),IF(NOT(ISBLANK(L10)),$L$1,""),IF(NOT(ISBLANK(M10)),$M$1,""),IF(NOT(ISBLANK(N10)),$N$1,""),IF(NOT(ISBLANK(O10)),$O$1,""),IF(NOT(ISBLANK(P10)),$P$1,""),IF(NOT(ISBLANK(Q10)),$Q$1,""))</f>
-        <v>#Dynamique #Souriant </v>
+        <v>#Dynamique #Souriant</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -943,7 +1008,7 @@
       </c>
       <c r="D11" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J11)),$J$1,""),IF(NOT(ISBLANK(K11)),$K$1,""),IF(NOT(ISBLANK(L11)),$L$1,""),IF(NOT(ISBLANK(M11)),$M$1,""),IF(NOT(ISBLANK(N11)),$N$1,""),IF(NOT(ISBLANK(O11)),$O$1,""),IF(NOT(ISBLANK(P11)),$P$1,""),IF(NOT(ISBLANK(Q11)),$Q$1,""))</f>
-        <v>#Posé #Souriant </v>
+        <v>#Posé #Souriant</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>19</v>
@@ -978,7 +1043,7 @@
       </c>
       <c r="D12" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J12)),$J$1,""),IF(NOT(ISBLANK(K12)),$K$1,""),IF(NOT(ISBLANK(L12)),$L$1,""),IF(NOT(ISBLANK(M12)),$M$1,""),IF(NOT(ISBLANK(N12)),$N$1,""),IF(NOT(ISBLANK(O12)),$O$1,""),IF(NOT(ISBLANK(P12)),$P$1,""),IF(NOT(ISBLANK(Q12)),$Q$1,""))</f>
-        <v>#Posé #Naturel </v>
+        <v>#Posé #Naturel</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>19</v>
@@ -1013,7 +1078,7 @@
       </c>
       <c r="D13" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J13)),$J$1,""),IF(NOT(ISBLANK(K13)),$K$1,""),IF(NOT(ISBLANK(L13)),$L$1,""),IF(NOT(ISBLANK(M13)),$M$1,""),IF(NOT(ISBLANK(N13)),$N$1,""),IF(NOT(ISBLANK(O13)),$O$1,""),IF(NOT(ISBLANK(P13)),$P$1,""),IF(NOT(ISBLANK(Q13)),$Q$1,""))</f>
-        <v>#Naturel #Souriant </v>
+        <v>#Naturel #Souriant</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>19</v>
@@ -1048,7 +1113,7 @@
       </c>
       <c r="D14" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J14)),$J$1,""),IF(NOT(ISBLANK(K14)),$K$1,""),IF(NOT(ISBLANK(L14)),$L$1,""),IF(NOT(ISBLANK(M14)),$M$1,""),IF(NOT(ISBLANK(N14)),$N$1,""),IF(NOT(ISBLANK(O14)),$O$1,""),IF(NOT(ISBLANK(P14)),$P$1,""),IF(NOT(ISBLANK(Q14)),$Q$1,""))</f>
-        <v>#Naturel #Sérieux </v>
+        <v>#Naturel #Sérieux</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>19</v>
@@ -1083,7 +1148,7 @@
       </c>
       <c r="D15" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J15)),$J$1,""),IF(NOT(ISBLANK(K15)),$K$1,""),IF(NOT(ISBLANK(L15)),$L$1,""),IF(NOT(ISBLANK(M15)),$M$1,""),IF(NOT(ISBLANK(N15)),$N$1,""),IF(NOT(ISBLANK(O15)),$O$1,""),IF(NOT(ISBLANK(P15)),$P$1,""),IF(NOT(ISBLANK(Q15)),$Q$1,""))</f>
-        <v>#Posé #Naturel </v>
+        <v>#Posé #Naturel</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>19</v>
@@ -1118,7 +1183,7 @@
       </c>
       <c r="D16" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J16)),$J$1,""),IF(NOT(ISBLANK(K16)),$K$1,""),IF(NOT(ISBLANK(L16)),$L$1,""),IF(NOT(ISBLANK(M16)),$M$1,""),IF(NOT(ISBLANK(N16)),$N$1,""),IF(NOT(ISBLANK(O16)),$O$1,""),IF(NOT(ISBLANK(P16)),$P$1,""),IF(NOT(ISBLANK(Q16)),$Q$1,""))</f>
-        <v>#Souriant </v>
+        <v>#Souriant</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>19</v>
@@ -1151,7 +1216,7 @@
       </c>
       <c r="D17" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J17)),$J$1,""),IF(NOT(ISBLANK(K17)),$K$1,""),IF(NOT(ISBLANK(L17)),$L$1,""),IF(NOT(ISBLANK(M17)),$M$1,""),IF(NOT(ISBLANK(N17)),$N$1,""),IF(NOT(ISBLANK(O17)),$O$1,""),IF(NOT(ISBLANK(P17)),$P$1,""),IF(NOT(ISBLANK(Q17)),$Q$1,""))</f>
-        <v>#Naturel #Rassurant </v>
+        <v>#Naturel #Rassurant</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>19</v>
@@ -1186,7 +1251,7 @@
       </c>
       <c r="D18" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J18)),$J$1,""),IF(NOT(ISBLANK(K18)),$K$1,""),IF(NOT(ISBLANK(L18)),$L$1,""),IF(NOT(ISBLANK(M18)),$M$1,""),IF(NOT(ISBLANK(N18)),$N$1,""),IF(NOT(ISBLANK(O18)),$O$1,""),IF(NOT(ISBLANK(P18)),$P$1,""),IF(NOT(ISBLANK(Q18)),$Q$1,""))</f>
-        <v>#Explicatif #Sérieux </v>
+        <v>#Explicatif #Sérieux</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>19</v>
@@ -1221,7 +1286,7 @@
       </c>
       <c r="D19" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J19)),$J$1,""),IF(NOT(ISBLANK(K19)),$K$1,""),IF(NOT(ISBLANK(L19)),$L$1,""),IF(NOT(ISBLANK(M19)),$M$1,""),IF(NOT(ISBLANK(N19)),$N$1,""),IF(NOT(ISBLANK(O19)),$O$1,""),IF(NOT(ISBLANK(P19)),$P$1,""),IF(NOT(ISBLANK(Q19)),$Q$1,""))</f>
-        <v>#Sérieux </v>
+        <v>#Sérieux</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>19</v>
@@ -1254,7 +1319,7 @@
       </c>
       <c r="D20" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J20)),$J$1,""),IF(NOT(ISBLANK(K20)),$K$1,""),IF(NOT(ISBLANK(L20)),$L$1,""),IF(NOT(ISBLANK(M20)),$M$1,""),IF(NOT(ISBLANK(N20)),$N$1,""),IF(NOT(ISBLANK(O20)),$O$1,""),IF(NOT(ISBLANK(P20)),$P$1,""),IF(NOT(ISBLANK(Q20)),$Q$1,""))</f>
-        <v>#Posé #Explicatif </v>
+        <v>#Posé #Explicatif</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>19</v>
@@ -1289,7 +1354,7 @@
       </c>
       <c r="D21" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J21)),$J$1,""),IF(NOT(ISBLANK(K21)),$K$1,""),IF(NOT(ISBLANK(L21)),$L$1,""),IF(NOT(ISBLANK(M21)),$M$1,""),IF(NOT(ISBLANK(N21)),$N$1,""),IF(NOT(ISBLANK(O21)),$O$1,""),IF(NOT(ISBLANK(P21)),$P$1,""),IF(NOT(ISBLANK(Q21)),$Q$1,""))</f>
-        <v>#Explicatif #Souriant </v>
+        <v>#Explicatif #Souriant</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>19</v>
@@ -1324,7 +1389,7 @@
       </c>
       <c r="D22" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J22)),$J$1,""),IF(NOT(ISBLANK(K22)),$K$1,""),IF(NOT(ISBLANK(L22)),$L$1,""),IF(NOT(ISBLANK(M22)),$M$1,""),IF(NOT(ISBLANK(N22)),$N$1,""),IF(NOT(ISBLANK(O22)),$O$1,""),IF(NOT(ISBLANK(P22)),$P$1,""),IF(NOT(ISBLANK(Q22)),$Q$1,""))</f>
-        <v>#Posé #Naturel </v>
+        <v>#Posé #Naturel</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>19</v>
@@ -1359,7 +1424,7 @@
       </c>
       <c r="D23" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J23)),$J$1,""),IF(NOT(ISBLANK(K23)),$K$1,""),IF(NOT(ISBLANK(L23)),$L$1,""),IF(NOT(ISBLANK(M23)),$M$1,""),IF(NOT(ISBLANK(N23)),$N$1,""),IF(NOT(ISBLANK(O23)),$O$1,""),IF(NOT(ISBLANK(P23)),$P$1,""),IF(NOT(ISBLANK(Q23)),$Q$1,""))</f>
-        <v>#Dynamique #Souriant </v>
+        <v>#Dynamique #Souriant</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>19</v>
@@ -1394,7 +1459,7 @@
       </c>
       <c r="D24" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J24)),$J$1,""),IF(NOT(ISBLANK(K24)),$K$1,""),IF(NOT(ISBLANK(L24)),$L$1,""),IF(NOT(ISBLANK(M24)),$M$1,""),IF(NOT(ISBLANK(N24)),$N$1,""),IF(NOT(ISBLANK(O24)),$O$1,""),IF(NOT(ISBLANK(P24)),$P$1,""),IF(NOT(ISBLANK(Q24)),$Q$1,""))</f>
-        <v>#Complice #Dynamique </v>
+        <v>#Complice #Dynamique</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>19</v>
@@ -1429,7 +1494,7 @@
       </c>
       <c r="D25" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J25)),$J$1,""),IF(NOT(ISBLANK(K25)),$K$1,""),IF(NOT(ISBLANK(L25)),$L$1,""),IF(NOT(ISBLANK(M25)),$M$1,""),IF(NOT(ISBLANK(N25)),$N$1,""),IF(NOT(ISBLANK(O25)),$O$1,""),IF(NOT(ISBLANK(P25)),$P$1,""),IF(NOT(ISBLANK(Q25)),$Q$1,""))</f>
-        <v>#Dynamique #Souriant </v>
+        <v>#Dynamique #Souriant</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>19</v>
@@ -1464,7 +1529,7 @@
       </c>
       <c r="D26" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J26)),$J$1,""),IF(NOT(ISBLANK(K26)),$K$1,""),IF(NOT(ISBLANK(L26)),$L$1,""),IF(NOT(ISBLANK(M26)),$M$1,""),IF(NOT(ISBLANK(N26)),$N$1,""),IF(NOT(ISBLANK(O26)),$O$1,""),IF(NOT(ISBLANK(P26)),$P$1,""),IF(NOT(ISBLANK(Q26)),$Q$1,""))</f>
-        <v>#Naturel </v>
+        <v>#Naturel</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>19</v>
@@ -1497,7 +1562,7 @@
       </c>
       <c r="D27" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J27)),$J$1,""),IF(NOT(ISBLANK(K27)),$K$1,""),IF(NOT(ISBLANK(L27)),$L$1,""),IF(NOT(ISBLANK(M27)),$M$1,""),IF(NOT(ISBLANK(N27)),$N$1,""),IF(NOT(ISBLANK(O27)),$O$1,""),IF(NOT(ISBLANK(P27)),$P$1,""),IF(NOT(ISBLANK(Q27)),$Q$1,""))</f>
-        <v>#Posé #Rassurant </v>
+        <v>#Posé #Rassurant</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>19</v>
@@ -1532,7 +1597,7 @@
       </c>
       <c r="D28" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J28)),$J$1,""),IF(NOT(ISBLANK(K28)),$K$1,""),IF(NOT(ISBLANK(L28)),$L$1,""),IF(NOT(ISBLANK(M28)),$M$1,""),IF(NOT(ISBLANK(N28)),$N$1,""),IF(NOT(ISBLANK(O28)),$O$1,""),IF(NOT(ISBLANK(P28)),$P$1,""),IF(NOT(ISBLANK(Q28)),$Q$1,""))</f>
-        <v>#Naturel #Souriant </v>
+        <v>#Naturel #Souriant</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>19</v>
@@ -1567,7 +1632,7 @@
       </c>
       <c r="D29" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J29)),$J$1,""),IF(NOT(ISBLANK(K29)),$K$1,""),IF(NOT(ISBLANK(L29)),$L$1,""),IF(NOT(ISBLANK(M29)),$M$1,""),IF(NOT(ISBLANK(N29)),$N$1,""),IF(NOT(ISBLANK(O29)),$O$1,""),IF(NOT(ISBLANK(P29)),$P$1,""),IF(NOT(ISBLANK(Q29)),$Q$1,""))</f>
-        <v>#Explicatif #Souriant </v>
+        <v>#Explicatif #Souriant</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
@@ -1602,7 +1667,7 @@
       </c>
       <c r="D30" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J30)),$J$1,""),IF(NOT(ISBLANK(K30)),$K$1,""),IF(NOT(ISBLANK(L30)),$L$1,""),IF(NOT(ISBLANK(M30)),$M$1,""),IF(NOT(ISBLANK(N30)),$N$1,""),IF(NOT(ISBLANK(O30)),$O$1,""),IF(NOT(ISBLANK(P30)),$P$1,""),IF(NOT(ISBLANK(Q30)),$Q$1,""))</f>
-        <v>#Dynamique #Souriant </v>
+        <v>#Dynamique #Souriant</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>19</v>
@@ -1637,7 +1702,7 @@
       </c>
       <c r="D31" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J31)),$J$1,""),IF(NOT(ISBLANK(K31)),$K$1,""),IF(NOT(ISBLANK(L31)),$L$1,""),IF(NOT(ISBLANK(M31)),$M$1,""),IF(NOT(ISBLANK(N31)),$N$1,""),IF(NOT(ISBLANK(O31)),$O$1,""),IF(NOT(ISBLANK(P31)),$P$1,""),IF(NOT(ISBLANK(Q31)),$Q$1,""))</f>
-        <v>#Explicatif #Souriant </v>
+        <v>#Explicatif #Souriant</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -1672,7 +1737,7 @@
       </c>
       <c r="D32" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J32)),$J$1,""),IF(NOT(ISBLANK(K32)),$K$1,""),IF(NOT(ISBLANK(L32)),$L$1,""),IF(NOT(ISBLANK(M32)),$M$1,""),IF(NOT(ISBLANK(N32)),$N$1,""),IF(NOT(ISBLANK(O32)),$O$1,""),IF(NOT(ISBLANK(P32)),$P$1,""),IF(NOT(ISBLANK(Q32)),$Q$1,""))</f>
-        <v>#Explicatif #Souriant </v>
+        <v>#Explicatif #Souriant</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -1707,7 +1772,7 @@
       </c>
       <c r="D33" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J33)),$J$1,""),IF(NOT(ISBLANK(K33)),$K$1,""),IF(NOT(ISBLANK(L33)),$L$1,""),IF(NOT(ISBLANK(M33)),$M$1,""),IF(NOT(ISBLANK(N33)),$N$1,""),IF(NOT(ISBLANK(O33)),$O$1,""),IF(NOT(ISBLANK(P33)),$P$1,""),IF(NOT(ISBLANK(Q33)),$Q$1,""))</f>
-        <v>#Explicatif </v>
+        <v>#Explicatif</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -1740,7 +1805,7 @@
       </c>
       <c r="D34" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(IF(NOT(ISBLANK(J34)),$J$1,""),IF(NOT(ISBLANK(K34)),$K$1,""),IF(NOT(ISBLANK(L34)),$L$1,""),IF(NOT(ISBLANK(M34)),$M$1,""),IF(NOT(ISBLANK(N34)),$N$1,""),IF(NOT(ISBLANK(O34)),$O$1,""),IF(NOT(ISBLANK(P34)),$P$1,""),IF(NOT(ISBLANK(Q34)),$Q$1,""))</f>
-        <v>#Posé #Naturel #Complice </v>
+        <v>#Posé #Naturel #Complice</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>19</v>
@@ -20115,493 +20180,383 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="23.4"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="12" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
+      <c r="C8" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>4</v>
+        <v>64</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>11</v>
+      <c r="F21" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
